--- a/public/PeminjamanData/dataDummyPeminjman.xlsx
+++ b/public/PeminjamanData/dataDummyPeminjman.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67279828-348A-445D-ABD3-F08156788BD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B3088E-6BE8-4626-8697-9A5372074E44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="2685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="buatkan data dummy dalam bentuk" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
-  <si>
-    <t>Budi</t>
-  </si>
-  <si>
-    <t>10A</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="86">
   <si>
     <t>Laptop</t>
   </si>
@@ -34,70 +28,256 @@
     <t>Dipinjam</t>
   </si>
   <si>
-    <t>Baik</t>
-  </si>
-  <si>
-    <t>Ani</t>
-  </si>
-  <si>
-    <t>11B</t>
-  </si>
-  <si>
-    <t>Proyektor</t>
-  </si>
-  <si>
-    <t>Rusak Sedang</t>
-  </si>
-  <si>
-    <t>Cici</t>
-  </si>
-  <si>
-    <t>12C</t>
-  </si>
-  <si>
-    <t>Mikroskop</t>
-  </si>
-  <si>
     <t>Dikembalikan</t>
   </si>
   <si>
-    <t>Rusak</t>
-  </si>
-  <si>
-    <t>Abas</t>
-  </si>
-  <si>
-    <t>12A</t>
-  </si>
-  <si>
-    <t>10B</t>
-  </si>
-  <si>
-    <t>Sepidol</t>
-  </si>
-  <si>
-    <t>2024-07-02 16:15:15</t>
-  </si>
-  <si>
-    <t>2024-07-02 16:15:16</t>
-  </si>
-  <si>
-    <t>2024-07-02 16:15:17</t>
-  </si>
-  <si>
-    <t>2024-07-02 16:15:18</t>
-  </si>
-  <si>
-    <t>2024-07-02 16:15:19</t>
-  </si>
-  <si>
-    <t>2024-07-05 16:15:17</t>
-  </si>
-  <si>
-    <t>2024-07-05 16:15:18</t>
-  </si>
-  <si>
-    <t>2024-07-05 16:15:19</t>
+    <t>Aditiya Putra</t>
+  </si>
+  <si>
+    <t>Ayu Lestari</t>
+  </si>
+  <si>
+    <t>Bagus Setiawan</t>
+  </si>
+  <si>
+    <t>Caca Kirana</t>
+  </si>
+  <si>
+    <t>Dimas Prasetyo</t>
+  </si>
+  <si>
+    <t>Eka Sari</t>
+  </si>
+  <si>
+    <t>Fajar Ramadhan</t>
+  </si>
+  <si>
+    <t>Gita Candra</t>
+  </si>
+  <si>
+    <t>Haryo Wibowo</t>
+  </si>
+  <si>
+    <t>Indah Permata</t>
+  </si>
+  <si>
+    <t>Joko Susanto</t>
+  </si>
+  <si>
+    <t>Karina Putri</t>
+  </si>
+  <si>
+    <t>Lintang Kusuma</t>
+  </si>
+  <si>
+    <t>Megawati</t>
+  </si>
+  <si>
+    <t>Nanda Sari</t>
+  </si>
+  <si>
+    <t>Oky Pratama</t>
+  </si>
+  <si>
+    <t>Putri Kusuma</t>
+  </si>
+  <si>
+    <t>Raka Dwiputra</t>
+  </si>
+  <si>
+    <t>Sari Dewi</t>
+  </si>
+  <si>
+    <t>Taufik Hidayat</t>
+  </si>
+  <si>
+    <t>Utami Dewi</t>
+  </si>
+  <si>
+    <t>Vika Sari</t>
+  </si>
+  <si>
+    <t>Wawan Setiawan</t>
+  </si>
+  <si>
+    <t>Xenia Putri</t>
+  </si>
+  <si>
+    <t>Yoga Pratama</t>
+  </si>
+  <si>
+    <t>Zahra Putri</t>
+  </si>
+  <si>
+    <t>Ari Setiawan</t>
+  </si>
+  <si>
+    <t>Dini Permata</t>
+  </si>
+  <si>
+    <t>Fajar Kusuma</t>
+  </si>
+  <si>
+    <t>Rini Sari</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>XI</t>
+  </si>
+  <si>
+    <t>XII</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>Kursi</t>
+  </si>
+  <si>
+    <t>Meja</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proyektor </t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Access Point</t>
+  </si>
+  <si>
+    <t>Obeng</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>Scanner</t>
+  </si>
+  <si>
+    <t>Untuk Belajar Dikelas</t>
+  </si>
+  <si>
+    <t>Untuk Belajar Mandiri Dirumah</t>
+  </si>
+  <si>
+    <t>Belajar Dikelas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentasi Dikelas </t>
+  </si>
+  <si>
+    <t>Untuk Praktikum</t>
+  </si>
+  <si>
+    <t>Untuk Mengscan Dokumen</t>
+  </si>
+  <si>
+    <t>Untuk Latihan Listening Inggris</t>
+  </si>
+  <si>
+    <t>Untuk Ngeprint Tugas</t>
+  </si>
+  <si>
+    <t>Ngerjain Tugas</t>
+  </si>
+  <si>
+    <t>2024-06-02 16:15:15</t>
+  </si>
+  <si>
+    <t>2024-06-03 16:15:16</t>
+  </si>
+  <si>
+    <t>2024-06-04 16:15:17</t>
+  </si>
+  <si>
+    <t>2024-06-05 16:15:18</t>
+  </si>
+  <si>
+    <t>2024-06-06 16:15:19</t>
+  </si>
+  <si>
+    <t>2024-06-07 16:15:20</t>
+  </si>
+  <si>
+    <t>2024-06-08 16:15:21</t>
+  </si>
+  <si>
+    <t>2024-06-09 16:15:22</t>
+  </si>
+  <si>
+    <t>2024-06-10 16:15:23</t>
+  </si>
+  <si>
+    <t>2024-06-11 16:15:24</t>
+  </si>
+  <si>
+    <t>2024-06-12 16:15:25</t>
+  </si>
+  <si>
+    <t>2024-06-13 16:15:26</t>
+  </si>
+  <si>
+    <t>2024-06-14 16:15:27</t>
+  </si>
+  <si>
+    <t>2024-06-15 16:15:28</t>
+  </si>
+  <si>
+    <t>2024-06-16 16:15:29</t>
+  </si>
+  <si>
+    <t>2024-06-17 16:15:30</t>
+  </si>
+  <si>
+    <t>2024-07-01 16:15:31</t>
+  </si>
+  <si>
+    <t>2024-07-02 16:15:32</t>
+  </si>
+  <si>
+    <t>2024-07-03 16:15:33</t>
+  </si>
+  <si>
+    <t>2024-07-04 16:15:34</t>
+  </si>
+  <si>
+    <t>2024-07-05 16:15:35</t>
+  </si>
+  <si>
+    <t>2024-07-06 16:15:36</t>
+  </si>
+  <si>
+    <t>2024-07-07 16:15:37</t>
+  </si>
+  <si>
+    <t>2024-07-08 16:15:38</t>
+  </si>
+  <si>
+    <t>2024-07-09 16:15:39</t>
+  </si>
+  <si>
+    <t>2024-07-10 16:15:40</t>
+  </si>
+  <si>
+    <t>2024-07-11 16:15:41</t>
+  </si>
+  <si>
+    <t>2024-07-12 16:15:42</t>
+  </si>
+  <si>
+    <t>2024-07-13 16:15:43</t>
+  </si>
+  <si>
+    <t>2024-07-14 16:15:44</t>
   </si>
 </sst>
 </file>
@@ -367,10 +547,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H1" sqref="H1:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -381,128 +561,747 @@
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
